--- a/Excels/String.xlsx
+++ b/Excels/String.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\TEST\LoveSimulation\새 폴더\HorrorGame\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE169A56-4590-4003-9EB4-00D4FE647C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB9AEF2-6F87-4B12-B9BA-6E791F3D831A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9075" yWindow="2745" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2745" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Id:Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,31 +39,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Description1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StringData.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이어하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,22 +429,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -423,10 +463,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -434,10 +474,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -445,10 +485,65 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
